--- a/out/percent_feedglucoseconc_ethanolconc.xlsx
+++ b/out/percent_feedglucoseconc_ethanolconc.xlsx
@@ -782,4 +782,153 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B5D43F0FBBF5643AC927DB6CC6E5581" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8dd0ec34aa87dd337979457bed9e3b64">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ec40dd7a-c8a1-4c6c-9ad8-870daf1d2aa7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0643b163f5f7b2a73f5439b0e88866" ns2:_="">
+    <xsd:import namespace="ec40dd7a-c8a1-4c6c-9ad8-870daf1d2aa7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ec40dd7a-c8a1-4c6c-9ad8-870daf1d2aa7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13859221-E757-4E2B-B181-E046F7D4DAF1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93413769-DF93-4D4D-B56C-763FB6A843B8}"/>
 </file>
--- a/out/percent_feedglucoseconc_ethanolconc.xlsx
+++ b/out/percent_feedglucoseconc_ethanolconc.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -85,19 +100,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/out/percent_feedglucoseconc_ethanolconc.xlsx
+++ b/out/percent_feedglucoseconc_ethanolconc.xlsx
@@ -13,7 +13,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -100,19 +220,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">

--- a/out/percent_feedglucoseconc_ethanolconc.xlsx
+++ b/out/percent_feedglucoseconc_ethanolconc.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -220,19 +235,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
